--- a/resources/experiment 1/metrics/MAPE/average time/Fallo Cardiaco.xlsx
+++ b/resources/experiment 1/metrics/MAPE/average time/Fallo Cardiaco.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02677021455653364</v>
+        <v>0.02821728926589555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02677021455653364</v>
+        <v>0.02852433095172064</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02677021455653364</v>
+        <v>0.0294186858572493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0230574449125757</v>
+        <v>0.02975141396014973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0230574449125757</v>
+        <v>0.02965907731189859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0230574449125757</v>
+        <v>0.02991523361315786</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03865466395212062</v>
+        <v>0.02593275180317702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03865466395212062</v>
+        <v>0.02501107573167348</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03865466395212062</v>
+        <v>0.02423436760172389</v>
       </c>
     </row>
   </sheetData>
